--- a/Database design/数据库设计.xlsx
+++ b/Database design/数据库设计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U盘坏了\学习资料\Java实验项目\JavaEE\潇湘药房\React-Material\Database design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E58C61-8FFB-49AA-AAF9-6898C18A6511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EEA4BA-4A77-4A4D-BB0F-DE297AFB8D3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="645" windowWidth="6660" windowHeight="8670" tabRatio="843" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21150" yWindow="645" windowWidth="15375" windowHeight="7995" tabRatio="843" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="138">
   <si>
     <t>商品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,246 +291,254 @@
     <t>GoodsTaboo</t>
   </si>
   <si>
+    <t>生产日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoodsProductionDate</t>
+  </si>
+  <si>
+    <t>GoodsManufacturer</t>
+  </si>
+  <si>
+    <t>idsMajorFunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`idBuyer`</t>
+  </si>
+  <si>
+    <t>`idBuyer`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`BuyerName`</t>
+  </si>
+  <si>
+    <t>`BuyerNumber`</t>
+  </si>
+  <si>
+    <t>`BuyerPassword`</t>
+  </si>
+  <si>
+    <t>`buyerEmail`</t>
+  </si>
+  <si>
+    <t>`buyerTel`</t>
+  </si>
+  <si>
+    <t>`buyerHeadpor`</t>
+  </si>
+  <si>
+    <t>1,2,3，4支付，未支付，已支付，已完成</t>
+  </si>
+  <si>
+    <t>`idOder`</t>
+  </si>
+  <si>
+    <t>店铺_商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`idShop_Goods`</t>
+  </si>
+  <si>
+    <t>`OderState`</t>
+  </si>
+  <si>
+    <t>商品数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`GoodsNumber`</t>
+  </si>
+  <si>
+    <t>购物车ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`idshoppingcart`</t>
+  </si>
+  <si>
+    <t>商店_商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`Buyer`</t>
+  </si>
+  <si>
+    <t>`Shop_Goods`</t>
+  </si>
+  <si>
+    <t>买家ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品_商店ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠劵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`idOrder`</t>
+  </si>
+  <si>
+    <t>`idVouchers`</t>
+  </si>
+  <si>
+    <t>`PaymentTime`</t>
+  </si>
+  <si>
+    <t>`Logistics`</t>
+  </si>
+  <si>
+    <t>`TotalPrice`</t>
+  </si>
+  <si>
+    <t>收藏ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`idcollection`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`idBUyer`</t>
+  </si>
+  <si>
+    <t>优惠卷ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idVouchers</t>
+  </si>
+  <si>
+    <t>idBuyer</t>
+  </si>
+  <si>
+    <t>idShop_Goods</t>
+  </si>
+  <si>
+    <t>VouchersAmount</t>
+  </si>
+  <si>
+    <t>商店ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`idStore`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`StoreNumber`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`StorePassword`</t>
+  </si>
+  <si>
+    <t>`StoreName`</t>
+  </si>
+  <si>
+    <t>商店状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`StoreState`</t>
+  </si>
+  <si>
+    <t>0，未开业，1，营业中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`StorePhyName`</t>
+  </si>
+  <si>
+    <t>`StorePhyIdCard`</t>
+  </si>
+  <si>
+    <t>`StoreLicense`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`StoreTel`</t>
+  </si>
+  <si>
+    <t>`StoreAddress`</t>
+  </si>
+  <si>
+    <t>`idComments`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`CommentLevel`</t>
+  </si>
+  <si>
+    <t>`CommentsAnonymous`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`Commentsdetails`</t>
+  </si>
+  <si>
+    <t>评论上家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`CommentsReplyid`</t>
+  </si>
+  <si>
+    <t>投诉ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`idComplaints`</t>
+  </si>
+  <si>
+    <t>`idStore`</t>
+  </si>
+  <si>
+    <t>`ComplaintsContent`</t>
+  </si>
+  <si>
+    <t>投诉详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投诉类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`ComplaintsCategory`</t>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderNumber</t>
+  </si>
+  <si>
     <t>GoodsValidity</t>
-  </si>
-  <si>
-    <t>生产日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoodsProductionDate</t>
-  </si>
-  <si>
-    <t>GoodsManufacturer</t>
-  </si>
-  <si>
-    <t>idsMajorFunction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`idBuyer`</t>
-  </si>
-  <si>
-    <t>`idBuyer`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`BuyerName`</t>
-  </si>
-  <si>
-    <t>`BuyerNumber`</t>
-  </si>
-  <si>
-    <t>`BuyerPassword`</t>
-  </si>
-  <si>
-    <t>`buyerEmail`</t>
-  </si>
-  <si>
-    <t>`buyerTel`</t>
-  </si>
-  <si>
-    <t>`buyerHeadpor`</t>
-  </si>
-  <si>
-    <t>1,2,3，4支付，未支付，已支付，已完成</t>
-  </si>
-  <si>
-    <t>`idOder`</t>
-  </si>
-  <si>
-    <t>店铺_商品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`idShop_Goods`</t>
-  </si>
-  <si>
-    <t>`OderState`</t>
-  </si>
-  <si>
-    <t>商品数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`GoodsNumber`</t>
-  </si>
-  <si>
-    <t>购物车ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`idshoppingcart`</t>
-  </si>
-  <si>
-    <t>商店_商品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`Buyer`</t>
-  </si>
-  <si>
-    <t>`Shop_Goods`</t>
-  </si>
-  <si>
-    <t>买家ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品_商店ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠劵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`idOrder`</t>
-  </si>
-  <si>
-    <t>`idVouchers`</t>
-  </si>
-  <si>
-    <t>`PaymentTime`</t>
-  </si>
-  <si>
-    <t>`Logistics`</t>
-  </si>
-  <si>
-    <t>`TotalPrice`</t>
-  </si>
-  <si>
-    <t>收藏ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`idcollection`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`idBUyer`</t>
-  </si>
-  <si>
-    <t>优惠卷ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idVouchers</t>
-  </si>
-  <si>
-    <t>idBuyer</t>
-  </si>
-  <si>
-    <t>idShop_Goods</t>
-  </si>
-  <si>
-    <t>VouchersAmount</t>
-  </si>
-  <si>
-    <t>商店ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`idStore`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`StoreNumber`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`StorePassword`</t>
-  </si>
-  <si>
-    <t>`StoreName`</t>
-  </si>
-  <si>
-    <t>商店状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`StoreState`</t>
-  </si>
-  <si>
-    <t>0，未开业，1，营业中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`StorePhyName`</t>
-  </si>
-  <si>
-    <t>`StorePhyIdCard`</t>
-  </si>
-  <si>
-    <t>`StoreLicense`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`StoreTel`</t>
-  </si>
-  <si>
-    <t>`StoreAddress`</t>
-  </si>
-  <si>
-    <t>`idComments`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`CommentLevel`</t>
-  </si>
-  <si>
-    <t>`CommentsAnonymous`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`Commentsdetails`</t>
-  </si>
-  <si>
-    <t>评论上家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`CommentsReplyid`</t>
-  </si>
-  <si>
-    <t>投诉ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`idComplaints`</t>
-  </si>
-  <si>
-    <t>`idStore`</t>
-  </si>
-  <si>
-    <t>`ComplaintsContent`</t>
-  </si>
-  <si>
-    <t>投诉详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投诉类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`ComplaintsCategory`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1018,7 +1026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19641F3B-0C88-4D9D-AD74-0C7A36343F58}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1038,10 +1046,10 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1049,7 +1057,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1057,23 +1065,23 @@
         <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1119,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1119,7 +1127,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1127,7 +1135,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1135,7 +1143,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1143,15 +1151,15 @@
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1164,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04FCB77-4EC7-43CA-A3F4-3CD94D0AFC4E}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1237,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1277,15 +1285,15 @@
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1293,7 +1301,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +1338,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1338,7 +1346,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1346,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1354,7 +1362,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1362,7 +1370,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1370,7 +1378,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1378,7 +1386,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1416,34 +1424,34 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1486,10 +1494,10 @@
     </row>
     <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1497,23 +1505,23 @@
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1527,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4138AE-37F4-49D9-A86E-6B69FC7B5E93}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1552,7 +1560,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1560,47 +1568,47 @@
         <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1608,7 +1616,15 @@
         <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1643,10 +1659,10 @@
     </row>
     <row r="2" spans="1:2" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1654,7 +1670,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1662,7 +1678,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1698,10 +1714,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
         <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1709,15 +1725,15 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1725,7 +1741,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1759,10 +1775,10 @@
     </row>
     <row r="2" spans="1:3" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1770,7 +1786,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1778,7 +1794,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1786,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1794,7 +1810,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1802,7 +1818,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1810,7 +1826,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1818,7 +1834,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1826,18 +1842,18 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
         <v>115</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>116</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
